--- a/src/public/excel/products.xlsx
+++ b/src/public/excel/products.xlsx
@@ -412,7 +412,7 @@
         <v>img</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" xml:space="preserve">
       <c r="A2">
         <v>1</v>
       </c>
@@ -420,7 +420,7 @@
         <v>logo 1</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D2">
         <v>300</v>
@@ -431,8 +431,9 @@
       <c r="F2">
         <v>6</v>
       </c>
-      <c r="G2" t="str">
-        <v xml:space="preserve">logo logo logo logo logo logo logo logo logo logo logo logo </v>
+      <c r="G2" t="str" xml:space="preserve">
+        <v xml:space="preserve">                            logo logo logo logo logo logo logo logo logo logo logo logo _x000d_
+                        </v>
       </c>
       <c r="H2">
         <v>2</v>
